--- a/original/Шторм_original.xlsx
+++ b/original/Шторм_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C459"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>RU</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Исправленный перевод писать в этом столбце</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1696,6 +1701,7 @@
     <row r="77">
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" s="1" t="inlineStr"/>
+      <c r="D77" s="1" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2285,6 +2291,7 @@
     <row r="114">
       <c r="B114" s="1" t="inlineStr"/>
       <c r="C114" s="1" t="inlineStr"/>
+      <c r="D114" s="1" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3520,6 +3527,7 @@
     <row r="189">
       <c r="B189" s="1" t="inlineStr"/>
       <c r="C189" s="1" t="inlineStr"/>
+      <c r="D189" s="1" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -6778,6 +6786,7 @@
     <row r="383">
       <c r="B383" s="1" t="inlineStr"/>
       <c r="C383" s="1" t="inlineStr"/>
+      <c r="D383" s="1" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -7044,6 +7053,7 @@
     <row r="401">
       <c r="B401" s="1" t="inlineStr"/>
       <c r="C401" s="1" t="inlineStr"/>
+      <c r="D401" s="1" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -7208,6 +7218,7 @@
     <row r="413">
       <c r="B413" s="1" t="inlineStr"/>
       <c r="C413" s="1" t="inlineStr"/>
+      <c r="D413" s="1" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -7695,6 +7706,7 @@
     <row r="444">
       <c r="B444" s="1" t="inlineStr"/>
       <c r="C444" s="1" t="inlineStr"/>
+      <c r="D444" s="1" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -7704,6 +7716,7 @@
       </c>
       <c r="B445" t="inlineStr"/>
       <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -7721,6 +7734,7 @@
           <t>Инициализация устройства</t>
         </is>
       </c>
+      <c r="D446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -7738,6 +7752,7 @@
           <t>Диапазон развертки</t>
         </is>
       </c>
+      <c r="D447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -7755,6 +7770,7 @@
           <t>Спектр</t>
         </is>
       </c>
+      <c r="D448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
@@ -7772,6 +7788,7 @@
           <t>Мониторинг Спектра</t>
         </is>
       </c>
+      <c r="D449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -7789,6 +7806,7 @@
           <t>Настройка параметров</t>
         </is>
       </c>
+      <c r="D450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -7806,6 +7824,7 @@
           <t>Выбор частоты</t>
         </is>
       </c>
+      <c r="D451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -7823,6 +7842,7 @@
           <t>Пожалуйста, выберите RBW</t>
         </is>
       </c>
+      <c r="D452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -7840,6 +7860,7 @@
           <t>Открыть</t>
         </is>
       </c>
+      <c r="D453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -7857,6 +7878,7 @@
           <t>Датчик</t>
         </is>
       </c>
+      <c r="D454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -7874,6 +7896,7 @@
           <t>Воспроизведение</t>
         </is>
       </c>
+      <c r="D455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -7891,6 +7914,7 @@
           <t>Пауза</t>
         </is>
       </c>
+      <c r="D456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
@@ -7908,6 +7932,7 @@
           <t>Сила</t>
         </is>
       </c>
+      <c r="D457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -7925,6 +7950,7 @@
           <t>Сканирование спектра остановлено</t>
         </is>
       </c>
+      <c r="D458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
@@ -7942,6 +7968,7 @@
           <t>Сканирование спектра начато</t>
         </is>
       </c>
+      <c r="D459" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/original/Шторм_original.xlsx
+++ b/original/Шторм_original.xlsx
@@ -3379,12 +3379,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Please select the radius of the countermeasure zone (- meter)</t>
+          <t>Please select the radius of the countermeasure zone (unit: meter)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Пожалуйста, выберите радиус зоны противодействия (единица - метр)</t>
+          <t>Пожалуйста, выберите радиус зоны противодействия (единица измерения: метр)</t>
         </is>
       </c>
     </row>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Please select the radius of the defense area (- meter)</t>
+          <t>Please select the radius of the defense area (unit: meter)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Пожалуйста, выберите радиус зоны предупреждения (единица - метр)</t>
+          <t>Пожалуйста, выберите радиус зоны предупреждения (единица измерения: метр)</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Frequency input - 70M - 6000M</t>
+          <t>Frequency input range: 70M - 6000M</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Диапазон ввода - 70M - 6000M</t>
+          <t>Диапазон ввода частоты: 70M - 6000M</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>- You can search or manage the list of model references here.</t>
+          <t>Note: You can search or manage the list of model references here.</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>- Здесь вы можете искать или управлять списком ссылок на модели</t>
+          <t>Примечание: Здесь вы можете искать или управлять списком ссылок на модели</t>
         </is>
       </c>
     </row>
